--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/XL DATA/Hydrologic Design Input.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/XL DATA/Hydrologic Design Input.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Main_Input" sheetId="1" r:id="rId1"/>
     <sheet name="Return_Period_Correction" sheetId="2" r:id="rId2"/>
     <sheet name="Basin_Slope_Correction" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Parameter_Description" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -18,19 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Values</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Basin Area</t>
   </si>
@@ -68,7 +56,82 @@
     <t>Adjustment</t>
   </si>
   <si>
-    <t>Slope Factor (L^2/S)^0.3</t>
+    <t>Slope Factor</t>
+  </si>
+  <si>
+    <t>name of parameter</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Length of Water Khal</t>
+  </si>
+  <si>
+    <t>Khal_Name</t>
+  </si>
+  <si>
+    <t>Code_Name</t>
+  </si>
+  <si>
+    <t>Hiron Branch Khal</t>
+  </si>
+  <si>
+    <t>Hiron Middle Para Khal</t>
+  </si>
+  <si>
+    <t>Boroi Hati Khal</t>
+  </si>
+  <si>
+    <t>Rakhila Khal</t>
+  </si>
+  <si>
+    <t>Gazir Khal</t>
+  </si>
+  <si>
+    <t>Silna -Shir Khal</t>
+  </si>
+  <si>
+    <t>Gabir Beel Khal</t>
+  </si>
+  <si>
+    <t>Khanar Par Khal</t>
+  </si>
+  <si>
+    <t>Dhulorujir Khal</t>
+  </si>
+  <si>
+    <t>Doapara Khal-1</t>
+  </si>
+  <si>
+    <t>Kochu Khal</t>
+  </si>
+  <si>
+    <t>Aria Khal</t>
+  </si>
+  <si>
+    <t>Barshapara Khal</t>
+  </si>
+  <si>
+    <t>Nawdanga Khal</t>
+  </si>
+  <si>
+    <t>Bangar Khal</t>
+  </si>
+  <si>
+    <t>Bhangar Branch Khal</t>
+  </si>
+  <si>
+    <t>Basabari Khal</t>
+  </si>
+  <si>
+    <t>Guadana West Para  Khal</t>
+  </si>
+  <si>
+    <t>Dola Beel</t>
   </si>
 </sst>
 </file>
@@ -413,93 +476,427 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="1">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>300</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.768</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="C3" s="1">
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.4039999999999999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
         <v>2.31</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1">
-        <v>135</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.002</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.6819999999999999</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.8420000000000001</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.66</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -512,7 +909,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,10 +920,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -602,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,67 +1009,67 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>0.98</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
         <v>-10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>-22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
         <v>-31</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>-38</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>40</v>
       </c>
     </row>
@@ -683,14 +1080,71 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="71.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/XL DATA/Hydrologic Design Input.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/XL DATA/Hydrologic Design Input.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>Basin Area</t>
   </si>
@@ -50,15 +50,9 @@
     <t>q100</t>
   </si>
   <si>
-    <t>Multyplying Factor</t>
-  </si>
-  <si>
     <t>Adjustment</t>
   </si>
   <si>
-    <t>Slope Factor</t>
-  </si>
-  <si>
     <t>name of parameter</t>
   </si>
   <si>
@@ -68,9 +62,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Length of Water Khal</t>
-  </si>
-  <si>
     <t>Khal_Name</t>
   </si>
   <si>
@@ -132,6 +123,81 @@
   </si>
   <si>
     <t>Dola Beel</t>
+  </si>
+  <si>
+    <t>Basin_Area</t>
+  </si>
+  <si>
+    <t>Length_of_Khal</t>
+  </si>
+  <si>
+    <t>Return_Period</t>
+  </si>
+  <si>
+    <t>Multyplying _Factor</t>
+  </si>
+  <si>
+    <t>Slope_Factor</t>
+  </si>
+  <si>
+    <t>q_100</t>
+  </si>
+  <si>
+    <t>HBK</t>
+  </si>
+  <si>
+    <t>HMP</t>
+  </si>
+  <si>
+    <t>BHK</t>
+  </si>
+  <si>
+    <t>RKK</t>
+  </si>
+  <si>
+    <t>GZK</t>
+  </si>
+  <si>
+    <t>SSK</t>
+  </si>
+  <si>
+    <t>GBK</t>
+  </si>
+  <si>
+    <t>KPK</t>
+  </si>
+  <si>
+    <t>DLB</t>
+  </si>
+  <si>
+    <t>DLK</t>
+  </si>
+  <si>
+    <t>DP1</t>
+  </si>
+  <si>
+    <t>KCK</t>
+  </si>
+  <si>
+    <t>AKH</t>
+  </si>
+  <si>
+    <t>BSK</t>
+  </si>
+  <si>
+    <t>NWK</t>
+  </si>
+  <si>
+    <t>BGK</t>
+  </si>
+  <si>
+    <t>BBK</t>
+  </si>
+  <si>
+    <t>BPK</t>
+  </si>
+  <si>
+    <t>GWP</t>
   </si>
 </sst>
 </file>
@@ -476,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,32 +558,35 @@
     <col min="6" max="6" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -531,13 +600,16 @@
       <c r="F2" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
+      <c r="G2" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -551,13 +623,16 @@
       <c r="F3" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
+      <c r="G3" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -571,13 +646,16 @@
       <c r="F4" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
+      <c r="G4" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -591,13 +669,16 @@
       <c r="F5" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
+      <c r="G5" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -611,13 +692,16 @@
       <c r="F6" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
+      <c r="G6" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -631,13 +715,16 @@
       <c r="F7" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
+      <c r="G7" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -651,13 +738,16 @@
       <c r="F8" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
+      <c r="G8" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -671,13 +761,16 @@
       <c r="F9" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
+      <c r="G9" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -691,13 +784,16 @@
       <c r="F10" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
+      <c r="G10" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -711,13 +807,16 @@
       <c r="F11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
+      <c r="G11" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
@@ -731,13 +830,16 @@
       <c r="F12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
+      <c r="G12" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
@@ -751,13 +853,16 @@
       <c r="F13" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
+      <c r="G13" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -771,13 +876,16 @@
       <c r="F14" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
+      <c r="G14" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
@@ -791,13 +899,16 @@
       <c r="F15" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
+      <c r="G15" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -811,13 +922,16 @@
       <c r="F16" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
+      <c r="G16" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
@@ -831,13 +945,16 @@
       <c r="F17" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
+      <c r="G17" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
@@ -851,13 +968,16 @@
       <c r="F18" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
+      <c r="G18" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
@@ -871,13 +991,16 @@
       <c r="F19" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
+      <c r="G19" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
@@ -891,11 +1014,14 @@
       <c r="F20" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
   </sheetData>
@@ -908,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,10 +1046,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1000,7 +1126,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,10 +1137,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1095,13 +1221,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/XL DATA/Hydrologic Design Input.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/XL DATA/Hydrologic Design Input.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49215BD-3D1D-4DA2-B24B-F6965BA2BC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main_Input" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>Basin Area</t>
   </si>
@@ -198,12 +199,21 @@
   </si>
   <si>
     <t>GWP</t>
+  </si>
+  <si>
+    <t>Bed _Width</t>
+  </si>
+  <si>
+    <t>Mannings_n</t>
+  </si>
+  <si>
+    <t>side_slope_m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -251,14 +261,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -296,7 +309,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -368,7 +381,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -541,24 +554,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -580,8 +596,17 @@
       <c r="G1" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -603,8 +628,17 @@
       <c r="G2" s="1">
         <v>155</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
@@ -626,8 +660,17 @@
       <c r="G3" s="1">
         <v>155</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -649,8 +692,17 @@
       <c r="G4" s="1">
         <v>155</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -672,8 +724,17 @@
       <c r="G5" s="1">
         <v>155</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -695,8 +756,17 @@
       <c r="G6" s="1">
         <v>155</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
@@ -718,8 +788,17 @@
       <c r="G7" s="1">
         <v>155</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -741,8 +820,17 @@
       <c r="G8" s="1">
         <v>155</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
@@ -764,8 +852,17 @@
       <c r="G9" s="1">
         <v>155</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
@@ -787,8 +884,17 @@
       <c r="G10" s="1">
         <v>155</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="1">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
@@ -810,8 +916,17 @@
       <c r="G11" s="1">
         <v>155</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="1">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
@@ -833,8 +948,17 @@
       <c r="G12" s="1">
         <v>155</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="1">
+        <v>3</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
@@ -856,8 +980,17 @@
       <c r="G13" s="1">
         <v>155</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="1">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
@@ -879,8 +1012,17 @@
       <c r="G14" s="1">
         <v>155</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="1">
+        <v>3</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
@@ -902,8 +1044,17 @@
       <c r="G15" s="1">
         <v>155</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="1">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
@@ -925,8 +1076,17 @@
       <c r="G16" s="1">
         <v>155</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="1">
+        <v>3</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -948,8 +1108,17 @@
       <c r="G17" s="1">
         <v>155</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="1">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>57</v>
       </c>
@@ -971,8 +1140,17 @@
       <c r="G18" s="1">
         <v>155</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="1">
+        <v>3</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
@@ -994,8 +1172,17 @@
       <c r="G19" s="1">
         <v>155</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="1">
+        <v>3</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
@@ -1017,12 +1204,18 @@
       <c r="G20" s="1">
         <v>155</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="1">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1031,20 +1224,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -1052,67 +1245,67 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>500</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>200</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1.06</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>50</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0.93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>25</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>0.85</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>15</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>0.79</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>0.73</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>0.62</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>0.4</v>
       </c>
     </row>
@@ -1122,20 +1315,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
@@ -1143,7 +1336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0.98</v>
       </c>
@@ -1151,7 +1344,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1159,7 +1352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1167,7 +1360,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1175,7 +1368,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1183,7 +1376,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1191,7 +1384,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1205,21 +1398,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="71.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="71.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1230,43 +1423,43 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1276,12 +1469,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/XL DATA/Hydrologic Design Input.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/XL DATA/Hydrologic Design Input.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49215BD-3D1D-4DA2-B24B-F6965BA2BC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Main_Input" sheetId="1" r:id="rId1"/>
@@ -213,7 +212,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -269,9 +268,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -309,7 +308,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -381,7 +380,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -554,24 +553,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1224,17 +1223,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1315,17 +1314,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1398,18 +1397,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="71.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="71.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1469,12 +1468,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
